--- a/db/clean_population.xlsx
+++ b/db/clean_population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudych/Desktop/repos/Project2_Group1/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34112C49-7F5E-8841-98A2-7A1A3CB94C59}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFD48FC-DE4F-3447-8C7D-7654AB35AD54}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="115" workbookViewId="0">
-      <selection activeCell="G406" sqref="G406"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,16 +456,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5230,7 +5230,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B342">
         <v>2010</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B343">
         <v>2010</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B344">
         <v>2010</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B345">
         <v>2010</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B346">
         <v>2011</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B347">
         <v>2011</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B348">
         <v>2011</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B349">
         <v>2011</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B350">
         <v>2012</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B351">
         <v>2012</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B352">
         <v>2012</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B353">
         <v>2012</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B354">
         <v>2013</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B355">
         <v>2013</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B356">
         <v>2013</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B357">
         <v>2013</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B358">
         <v>2014</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B359">
         <v>2014</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B360">
         <v>2014</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B361">
         <v>2014</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B362">
         <v>2015</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B363">
         <v>2015</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B364">
         <v>2015</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B365">
         <v>2015</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B366">
         <v>2016</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B367">
         <v>2016</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B368">
         <v>2016</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B369">
         <v>2016</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B370">
         <v>2017</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B371">
         <v>2017</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B372">
         <v>2017</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B373">
         <v>2017</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B374">
         <v>2018</v>
@@ -5692,7 +5692,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B375">
         <v>2018</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B376">
         <v>2010</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B377">
         <v>2010</v>
@@ -5734,7 +5734,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B378">
         <v>2010</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B379">
         <v>2010</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B380">
         <v>2011</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B381">
         <v>2011</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B382">
         <v>2011</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B383">
         <v>2011</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B384">
         <v>2012</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B385">
         <v>2012</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B386">
         <v>2012</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B387">
         <v>2012</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B388">
         <v>2013</v>
@@ -5888,7 +5888,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B389">
         <v>2013</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B390">
         <v>2013</v>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B391">
         <v>2013</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B392">
         <v>2014</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B393">
         <v>2014</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B394">
         <v>2014</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B395">
         <v>2014</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B396">
         <v>2015</v>
@@ -6000,7 +6000,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B397">
         <v>2015</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B398">
         <v>2015</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B399">
         <v>2015</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B400">
         <v>2016</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B401">
         <v>2016</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B402">
         <v>2016</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B403">
         <v>2016</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B404">
         <v>2017</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B405">
         <v>2017</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B406">
         <v>2017</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B407">
         <v>2017</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B408">
         <v>2018</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B409">
         <v>2018</v>
